--- a/distObjects.xlsx
+++ b/distObjects.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="55">
   <si>
     <t>bodyStyle</t>
   </si>
@@ -552,7 +552,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F65536"/>
+      <selection pane="bottomRight" activeCell="L120" sqref="L120:L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1923,10 +1923,10 @@
         <v>1.89</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L31" s="1">
-        <v>1.375</v>
+        <v>1.125</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>16</v>
@@ -1967,10 +1967,10 @@
         <v>1.89</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L32" s="1">
-        <v>1.375</v>
+        <v>1.125</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>16</v>
@@ -2011,10 +2011,10 @@
         <v>1.89</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L33" s="1">
-        <v>1.375</v>
+        <v>1.125</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>16</v>
@@ -2410,7 +2410,7 @@
         <v>22</v>
       </c>
       <c r="L42" s="1">
-        <v>1.1559999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="M42" s="6" t="s">
         <v>16</v>
@@ -2454,7 +2454,7 @@
         <v>22</v>
       </c>
       <c r="L43" s="1">
-        <v>1.125</v>
+        <v>1.375</v>
       </c>
       <c r="M43" s="6" t="s">
         <v>16</v>
@@ -2498,7 +2498,7 @@
         <v>22</v>
       </c>
       <c r="L44" s="1">
-        <v>1.125</v>
+        <v>1.375</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>16</v>
@@ -2542,7 +2542,7 @@
         <v>22</v>
       </c>
       <c r="L45" s="1">
-        <v>1.125</v>
+        <v>1.375</v>
       </c>
       <c r="M45" s="6" t="s">
         <v>16</v>
@@ -2586,7 +2586,7 @@
         <v>25</v>
       </c>
       <c r="L46" s="1">
-        <v>1.125</v>
+        <v>1.625</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>16</v>
@@ -2630,7 +2630,7 @@
         <v>25</v>
       </c>
       <c r="L47" s="1">
-        <v>1.125</v>
+        <v>1.625</v>
       </c>
       <c r="M47" s="6" t="s">
         <v>16</v>
@@ -2674,7 +2674,7 @@
         <v>25</v>
       </c>
       <c r="L48" s="1">
-        <v>1.125</v>
+        <v>1.625</v>
       </c>
       <c r="M48" s="6" t="s">
         <v>16</v>
@@ -2718,7 +2718,7 @@
         <v>25</v>
       </c>
       <c r="L49" s="1">
-        <v>1.125</v>
+        <v>1.625</v>
       </c>
       <c r="M49" s="6" t="s">
         <v>16</v>
@@ -2761,8 +2761,8 @@
       <c r="K50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>16</v>
+      <c r="L50" s="1">
+        <v>1.625</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>16</v>
@@ -2805,8 +2805,8 @@
       <c r="K51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>16</v>
+      <c r="L51" s="1">
+        <v>1.625</v>
       </c>
       <c r="M51" s="6" t="s">
         <v>16</v>
@@ -2849,8 +2849,8 @@
       <c r="K52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>16</v>
+      <c r="L52" s="1">
+        <v>1.625</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>16</v>
@@ -2893,8 +2893,8 @@
       <c r="K53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>16</v>
+      <c r="L53" s="1">
+        <v>1.625</v>
       </c>
       <c r="M53" s="6" t="s">
         <v>16</v>
@@ -2937,8 +2937,8 @@
       <c r="K54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>16</v>
+      <c r="L54" s="1">
+        <v>1.625</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>16</v>
@@ -2981,8 +2981,8 @@
       <c r="K55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>16</v>
+      <c r="L55" s="1">
+        <v>1.625</v>
       </c>
       <c r="M55" s="6" t="s">
         <v>16</v>
@@ -3025,8 +3025,8 @@
       <c r="K56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>16</v>
+      <c r="L56" s="1">
+        <v>1.625</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>16</v>
@@ -3069,8 +3069,8 @@
       <c r="K57" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>16</v>
+      <c r="L57" s="1">
+        <v>1.625</v>
       </c>
       <c r="M57" s="6" t="s">
         <v>16</v>
@@ -3113,8 +3113,8 @@
       <c r="K58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>16</v>
+      <c r="L58" s="1">
+        <v>0.5</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>16</v>
@@ -3157,8 +3157,8 @@
       <c r="K59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>16</v>
+      <c r="L59" s="1">
+        <v>0.5</v>
       </c>
       <c r="M59" s="6" t="s">
         <v>16</v>
@@ -3201,8 +3201,8 @@
       <c r="K60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>16</v>
+      <c r="L60" s="1">
+        <v>0.5</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>16</v>
@@ -3246,7 +3246,7 @@
         <v>28</v>
       </c>
       <c r="L61" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="M61" s="6" t="s">
         <v>16</v>
@@ -3290,7 +3290,7 @@
         <v>28</v>
       </c>
       <c r="L62" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="M62" s="6" t="s">
         <v>16</v>
@@ -3334,7 +3334,7 @@
         <v>28</v>
       </c>
       <c r="L63" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>16</v>
@@ -3377,8 +3377,8 @@
       <c r="K64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>16</v>
+      <c r="L64" s="1">
+        <v>0.5</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>16</v>
@@ -3421,8 +3421,8 @@
       <c r="K65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>16</v>
+      <c r="L65" s="1">
+        <v>0.5</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>16</v>
@@ -3465,8 +3465,8 @@
       <c r="K66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>16</v>
+      <c r="L66" s="1">
+        <v>0.5</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>16</v>
@@ -3509,8 +3509,8 @@
       <c r="K67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L67" s="1" t="s">
-        <v>16</v>
+      <c r="L67" s="1">
+        <v>0.5</v>
       </c>
       <c r="M67" s="6" t="s">
         <v>16</v>
@@ -3554,7 +3554,7 @@
         <v>28</v>
       </c>
       <c r="L68" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>16</v>
@@ -3598,7 +3598,7 @@
         <v>28</v>
       </c>
       <c r="L69" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="M69" s="6" t="s">
         <v>16</v>
@@ -3642,7 +3642,7 @@
         <v>28</v>
       </c>
       <c r="L70" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="M70" s="6" t="s">
         <v>16</v>
@@ -3686,7 +3686,7 @@
         <v>28</v>
       </c>
       <c r="L71" s="1">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="M71" s="6" t="s">
         <v>16</v>
@@ -3729,8 +3729,8 @@
       <c r="K72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="1" t="s">
-        <v>16</v>
+      <c r="L72" s="1">
+        <v>0.5</v>
       </c>
       <c r="M72" s="6" t="s">
         <v>16</v>
@@ -3773,8 +3773,8 @@
       <c r="K73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L73" s="1" t="s">
-        <v>16</v>
+      <c r="L73" s="1">
+        <v>0.5</v>
       </c>
       <c r="M73" s="6" t="s">
         <v>16</v>
@@ -3817,8 +3817,8 @@
       <c r="K74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>16</v>
+      <c r="L74" s="1">
+        <v>0.5</v>
       </c>
       <c r="M74" s="6" t="s">
         <v>16</v>
@@ -3861,8 +3861,8 @@
       <c r="K75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L75" s="1" t="s">
-        <v>16</v>
+      <c r="L75" s="1">
+        <v>0.5</v>
       </c>
       <c r="M75" s="6" t="s">
         <v>16</v>
@@ -3905,8 +3905,8 @@
       <c r="K76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L76" s="1" t="s">
-        <v>16</v>
+      <c r="L76" s="1">
+        <v>0.5</v>
       </c>
       <c r="M76" s="6" t="s">
         <v>16</v>
@@ -3949,8 +3949,8 @@
       <c r="K77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L77" s="1" t="s">
-        <v>16</v>
+      <c r="L77" s="1">
+        <v>0.5</v>
       </c>
       <c r="M77" s="6" t="s">
         <v>16</v>
@@ -3993,8 +3993,8 @@
       <c r="K78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L78" s="1" t="s">
-        <v>16</v>
+      <c r="L78" s="1">
+        <v>0.5</v>
       </c>
       <c r="M78" s="6" t="s">
         <v>16</v>
@@ -4037,8 +4037,8 @@
       <c r="K79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>16</v>
+      <c r="L79" s="1">
+        <v>0.625</v>
       </c>
       <c r="M79" s="6" t="s">
         <v>16</v>
@@ -4081,8 +4081,8 @@
       <c r="K80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L80" s="1" t="s">
-        <v>16</v>
+      <c r="L80" s="1">
+        <v>0.625</v>
       </c>
       <c r="M80" s="6" t="s">
         <v>16</v>
@@ -4125,8 +4125,8 @@
       <c r="K81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>16</v>
+      <c r="L81" s="1">
+        <v>0.625</v>
       </c>
       <c r="M81" s="6" t="s">
         <v>16</v>
@@ -4170,7 +4170,7 @@
         <v>18</v>
       </c>
       <c r="L82" s="1">
-        <v>0.66</v>
+        <v>0.625</v>
       </c>
       <c r="M82" s="6">
         <v>0.98</v>
@@ -4214,7 +4214,7 @@
         <v>36</v>
       </c>
       <c r="L83" s="1">
-        <v>0.66</v>
+        <v>0.625</v>
       </c>
       <c r="M83" s="6">
         <v>0.98</v>
@@ -4258,7 +4258,7 @@
         <v>37</v>
       </c>
       <c r="L84" s="1">
-        <v>0.66</v>
+        <v>0.625</v>
       </c>
       <c r="M84" s="6">
         <v>0.98</v>
@@ -4302,7 +4302,7 @@
         <v>20</v>
       </c>
       <c r="L85" s="1">
-        <v>0.91</v>
+        <v>0.875</v>
       </c>
       <c r="M85" s="6">
         <v>1.22</v>
@@ -4346,7 +4346,7 @@
         <v>20</v>
       </c>
       <c r="L86" s="1">
-        <v>0.91</v>
+        <v>0.875</v>
       </c>
       <c r="M86" s="6">
         <v>1.22</v>
@@ -4390,7 +4390,7 @@
         <v>20</v>
       </c>
       <c r="L87" s="1">
-        <v>0.91</v>
+        <v>0.875</v>
       </c>
       <c r="M87" s="6">
         <v>1.22</v>
@@ -4434,7 +4434,7 @@
         <v>20</v>
       </c>
       <c r="L88" s="1">
-        <v>0.91</v>
+        <v>0.875</v>
       </c>
       <c r="M88" s="6">
         <v>1.22</v>
@@ -4478,7 +4478,7 @@
         <v>20</v>
       </c>
       <c r="L89" s="1">
-        <v>0.91</v>
+        <v>0.875</v>
       </c>
       <c r="M89" s="6">
         <v>1.22</v>
@@ -4522,7 +4522,7 @@
         <v>21</v>
       </c>
       <c r="L90" s="1">
-        <v>1.06</v>
+        <v>1.125</v>
       </c>
       <c r="M90" s="6">
         <v>1.47</v>
@@ -4566,7 +4566,7 @@
         <v>21</v>
       </c>
       <c r="L91" s="1">
-        <v>1.06</v>
+        <v>1.125</v>
       </c>
       <c r="M91" s="6">
         <v>1.47</v>
@@ -4610,7 +4610,7 @@
         <v>21</v>
       </c>
       <c r="L92" s="1">
-        <v>1.06</v>
+        <v>1.125</v>
       </c>
       <c r="M92" s="6">
         <v>1.47</v>
@@ -4654,7 +4654,7 @@
         <v>21</v>
       </c>
       <c r="L93" s="1">
-        <v>1.06</v>
+        <v>1.125</v>
       </c>
       <c r="M93" s="6">
         <v>1.47</v>
@@ -4698,7 +4698,7 @@
         <v>21</v>
       </c>
       <c r="L94" s="1">
-        <v>1.06</v>
+        <v>1.125</v>
       </c>
       <c r="M94" s="6">
         <v>1.47</v>
@@ -4742,7 +4742,7 @@
         <v>22</v>
       </c>
       <c r="L95" s="1">
-        <v>1.31</v>
+        <v>1.375</v>
       </c>
       <c r="M95" s="6">
         <v>1.88</v>
@@ -4786,7 +4786,7 @@
         <v>22</v>
       </c>
       <c r="L96" s="1">
-        <v>1.31</v>
+        <v>1.375</v>
       </c>
       <c r="M96" s="6">
         <v>1.88</v>
@@ -4830,7 +4830,7 @@
         <v>22</v>
       </c>
       <c r="L97" s="1">
-        <v>1.31</v>
+        <v>1.375</v>
       </c>
       <c r="M97" s="6">
         <v>1.88</v>
@@ -4874,7 +4874,7 @@
         <v>22</v>
       </c>
       <c r="L98" s="1">
-        <v>1.31</v>
+        <v>1.375</v>
       </c>
       <c r="M98" s="6">
         <v>1.88</v>
@@ -4918,7 +4918,7 @@
         <v>22</v>
       </c>
       <c r="L99" s="1">
-        <v>1.31</v>
+        <v>1.375</v>
       </c>
       <c r="M99" s="6">
         <v>1.88</v>
@@ -4962,7 +4962,7 @@
         <v>25</v>
       </c>
       <c r="L100" s="1">
-        <v>1.62</v>
+        <v>1.625</v>
       </c>
       <c r="M100" s="6">
         <v>2.31</v>
@@ -5006,7 +5006,7 @@
         <v>25</v>
       </c>
       <c r="L101" s="1">
-        <v>1.62</v>
+        <v>1.625</v>
       </c>
       <c r="M101" s="6">
         <v>2.31</v>
@@ -5050,7 +5050,7 @@
         <v>25</v>
       </c>
       <c r="L102" s="1">
-        <v>1.62</v>
+        <v>1.625</v>
       </c>
       <c r="M102" s="6">
         <v>2.31</v>
@@ -5093,8 +5093,8 @@
       <c r="K103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L103" s="1" t="s">
-        <v>16</v>
+      <c r="L103" s="1">
+        <v>0.5</v>
       </c>
       <c r="M103" s="6">
         <v>2.06</v>
@@ -5137,8 +5137,8 @@
       <c r="K104" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L104" s="1" t="s">
-        <v>16</v>
+      <c r="L104" s="1">
+        <v>0.5</v>
       </c>
       <c r="M104" s="6">
         <v>2.06</v>
@@ -5181,8 +5181,8 @@
       <c r="K105" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L105" s="1" t="s">
-        <v>16</v>
+      <c r="L105" s="1">
+        <v>0.5</v>
       </c>
       <c r="M105" s="6">
         <v>2.06</v>
@@ -5225,8 +5225,8 @@
       <c r="K106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L106" s="1" t="s">
-        <v>16</v>
+      <c r="L106" s="1">
+        <v>0.625</v>
       </c>
       <c r="M106" s="6">
         <v>2.5</v>
@@ -5269,8 +5269,8 @@
       <c r="K107" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L107" s="1" t="s">
-        <v>16</v>
+      <c r="L107" s="1">
+        <v>0.625</v>
       </c>
       <c r="M107" s="6">
         <v>2.5</v>
@@ -5313,8 +5313,8 @@
       <c r="K108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L108" s="1" t="s">
-        <v>16</v>
+      <c r="L108" s="1">
+        <v>0.625</v>
       </c>
       <c r="M108" s="6">
         <v>2.5</v>
@@ -5357,8 +5357,8 @@
       <c r="K109" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L109" s="1" t="s">
-        <v>16</v>
+      <c r="L109" s="1">
+        <v>0.625</v>
       </c>
       <c r="M109" s="6">
         <v>2.75</v>
@@ -5401,8 +5401,8 @@
       <c r="K110" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L110" s="1" t="s">
-        <v>16</v>
+      <c r="L110" s="1">
+        <v>0.625</v>
       </c>
       <c r="M110" s="6">
         <v>2.75</v>
@@ -5445,8 +5445,8 @@
       <c r="K111" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L111" s="1" t="s">
-        <v>16</v>
+      <c r="L111" s="1">
+        <v>0.625</v>
       </c>
       <c r="M111" s="6">
         <v>2.75</v>
@@ -5489,8 +5489,8 @@
       <c r="K112" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L112" s="1" t="s">
-        <v>16</v>
+      <c r="L112" s="1">
+        <v>0.625</v>
       </c>
       <c r="M112" s="6">
         <v>2.75</v>
@@ -5533,8 +5533,8 @@
       <c r="K113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L113" s="1" t="s">
-        <v>16</v>
+      <c r="L113" s="1">
+        <v>0.625</v>
       </c>
       <c r="M113" s="6">
         <v>2.75</v>
@@ -5577,8 +5577,8 @@
       <c r="K114" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L114" s="1" t="s">
-        <v>16</v>
+      <c r="L114" s="1">
+        <v>0.625</v>
       </c>
       <c r="M114" s="6">
         <v>2.94</v>
@@ -5621,8 +5621,8 @@
       <c r="K115" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L115" s="1" t="s">
-        <v>16</v>
+      <c r="L115" s="1">
+        <v>0.625</v>
       </c>
       <c r="M115" s="6">
         <v>2.94</v>
@@ -5665,8 +5665,8 @@
       <c r="K116" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L116" s="1" t="s">
-        <v>16</v>
+      <c r="L116" s="1">
+        <v>0.625</v>
       </c>
       <c r="M116" s="6">
         <v>2.94</v>
@@ -5709,8 +5709,8 @@
       <c r="K117" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L117" s="1" t="s">
-        <v>16</v>
+      <c r="L117" s="1">
+        <v>0.625</v>
       </c>
       <c r="M117" s="6">
         <v>2.94</v>
@@ -5753,8 +5753,8 @@
       <c r="K118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L118" s="1" t="s">
-        <v>16</v>
+      <c r="L118" s="1">
+        <v>0.625</v>
       </c>
       <c r="M118" s="6">
         <v>2.94</v>
@@ -5798,7 +5798,7 @@
         <v>25</v>
       </c>
       <c r="L119" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -5836,7 +5836,7 @@
         <v>25</v>
       </c>
       <c r="L120" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -5874,7 +5874,7 @@
         <v>25</v>
       </c>
       <c r="L121" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
         <v>25</v>
       </c>
       <c r="L122" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -5950,7 +5950,7 @@
         <v>25</v>
       </c>
       <c r="L123" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -5988,7 +5988,7 @@
         <v>25</v>
       </c>
       <c r="L124" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -6026,7 +6026,7 @@
         <v>25</v>
       </c>
       <c r="L125" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -6064,7 +6064,7 @@
         <v>25</v>
       </c>
       <c r="L126" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -6102,7 +6102,7 @@
         <v>25</v>
       </c>
       <c r="L127" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -6140,7 +6140,7 @@
         <v>25</v>
       </c>
       <c r="L128" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -6178,7 +6178,7 @@
         <v>25</v>
       </c>
       <c r="L129" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -6216,7 +6216,7 @@
         <v>25</v>
       </c>
       <c r="L130" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -6254,7 +6254,7 @@
         <v>25</v>
       </c>
       <c r="L131" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -6292,7 +6292,7 @@
         <v>25</v>
       </c>
       <c r="L132" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -6330,7 +6330,7 @@
         <v>25</v>
       </c>
       <c r="L133" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -6368,7 +6368,7 @@
         <v>25</v>
       </c>
       <c r="L134" s="1">
-        <v>1.44</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
